--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128775.5261749403</v>
+        <v>142098.9891649605</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="C4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="D4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="E4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="F4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="G4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="H4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="I4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="J4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="K4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="L4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="M4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="N4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="O4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="P4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19695.5237371506</v>
+        <v>-17501.48917028302</v>
       </c>
       <c r="C6" t="n">
-        <v>-19695.5237371506</v>
+        <v>-17501.48917028302</v>
       </c>
       <c r="D6" t="n">
-        <v>-19695.5237371506</v>
+        <v>-17501.48917028302</v>
       </c>
       <c r="E6" t="n">
-        <v>-82905.39491199635</v>
+        <v>-81605.19877283089</v>
       </c>
       <c r="F6" t="n">
-        <v>50194.6050880037</v>
+        <v>51494.80122716909</v>
       </c>
       <c r="G6" t="n">
-        <v>50194.6050880037</v>
+        <v>51494.80122716907</v>
       </c>
       <c r="H6" t="n">
-        <v>50194.60508800371</v>
+        <v>51494.80122716909</v>
       </c>
       <c r="I6" t="n">
-        <v>50194.6050880037</v>
+        <v>51494.80122716909</v>
       </c>
       <c r="J6" t="n">
-        <v>50194.6050880037</v>
+        <v>51494.80122716909</v>
       </c>
       <c r="K6" t="n">
-        <v>50194.6050880037</v>
+        <v>51494.80122716909</v>
       </c>
       <c r="L6" t="n">
-        <v>50194.6050880037</v>
+        <v>51494.80122716909</v>
       </c>
       <c r="M6" t="n">
-        <v>50194.6050880037</v>
+        <v>51494.80122716909</v>
       </c>
       <c r="N6" t="n">
-        <v>50194.6050880037</v>
+        <v>51494.80122716909</v>
       </c>
       <c r="O6" t="n">
-        <v>50194.6050880037</v>
+        <v>51494.80122716909</v>
       </c>
       <c r="P6" t="n">
-        <v>50194.6050880037</v>
+        <v>51494.80122716909</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>142098.9891649605</v>
+        <v>155825.3473023789</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="C4" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="D4" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="E4" t="n">
         <v>47782.0800026998</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028302</v>
+        <v>-17501.48917028301</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028302</v>
+        <v>-17501.48917028301</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028302</v>
+        <v>-17501.48917028301</v>
       </c>
       <c r="E6" t="n">
-        <v>-81605.19877283089</v>
+        <v>-81605.19877283096</v>
       </c>
       <c r="F6" t="n">
-        <v>51494.80122716909</v>
+        <v>51494.80122716912</v>
       </c>
       <c r="G6" t="n">
-        <v>51494.80122716907</v>
+        <v>51494.80122716912</v>
       </c>
       <c r="H6" t="n">
-        <v>51494.80122716909</v>
+        <v>51494.80122716912</v>
       </c>
       <c r="I6" t="n">
-        <v>51494.80122716909</v>
+        <v>51494.80122716912</v>
       </c>
       <c r="J6" t="n">
-        <v>51494.80122716909</v>
+        <v>51494.80122716912</v>
       </c>
       <c r="K6" t="n">
-        <v>51494.80122716909</v>
+        <v>51494.80122716912</v>
       </c>
       <c r="L6" t="n">
-        <v>51494.80122716909</v>
+        <v>51494.80122716912</v>
       </c>
       <c r="M6" t="n">
-        <v>51494.80122716909</v>
+        <v>51494.80122716912</v>
       </c>
       <c r="N6" t="n">
-        <v>51494.80122716909</v>
+        <v>51494.80122716912</v>
       </c>
       <c r="O6" t="n">
-        <v>51494.80122716909</v>
+        <v>51494.80122716912</v>
       </c>
       <c r="P6" t="n">
-        <v>51494.80122716909</v>
+        <v>51494.80122716912</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155825.3473023789</v>
+        <v>30715.44850490192</v>
       </c>
     </row>
     <row r="7">
@@ -26319,7 +26319,7 @@
         <v>96756.66497830176</v>
       </c>
       <c r="D2" t="n">
-        <v>96756.66497830176</v>
+        <v>96756.66497830175</v>
       </c>
       <c r="E2" t="n">
         <v>102888.4933348772</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028301</v>
+        <v>-32652.16314031778</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028301</v>
+        <v>-32652.16314031778</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028301</v>
+        <v>-32652.16314031779</v>
       </c>
       <c r="E6" t="n">
-        <v>-81605.19877283096</v>
+        <v>-96415.21561194486</v>
       </c>
       <c r="F6" t="n">
-        <v>51494.80122716912</v>
+        <v>36684.78438805518</v>
       </c>
       <c r="G6" t="n">
-        <v>51494.80122716912</v>
+        <v>36684.78438805518</v>
       </c>
       <c r="H6" t="n">
-        <v>51494.80122716912</v>
+        <v>36684.78438805518</v>
       </c>
       <c r="I6" t="n">
-        <v>51494.80122716912</v>
+        <v>36684.78438805518</v>
       </c>
       <c r="J6" t="n">
-        <v>51494.80122716912</v>
+        <v>36684.78438805518</v>
       </c>
       <c r="K6" t="n">
-        <v>51494.80122716912</v>
+        <v>36684.78438805518</v>
       </c>
       <c r="L6" t="n">
-        <v>51494.80122716912</v>
+        <v>36684.78438805518</v>
       </c>
       <c r="M6" t="n">
-        <v>51494.80122716912</v>
+        <v>36684.78438805518</v>
       </c>
       <c r="N6" t="n">
-        <v>51494.80122716912</v>
+        <v>36684.78438805518</v>
       </c>
       <c r="O6" t="n">
-        <v>51494.80122716912</v>
+        <v>36684.78438805518</v>
       </c>
       <c r="P6" t="n">
-        <v>51494.80122716912</v>
+        <v>36684.78438805518</v>
       </c>
     </row>
   </sheetData>
